--- a/crafting_data.xlsx
+++ b/crafting_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Prg\Python\RecipeResearcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9700B1B4-25DA-4C0C-B328-7409AEC4CEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD566B27-9DBF-4B4B-BB5F-098857DE4326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{610EC80C-3ECE-4071-8F37-165773554FF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="178">
   <si>
     <t>完成品名</t>
   </si>
@@ -164,6 +164,485 @@
   <si>
     <t>黄金の霊砂</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眼力の宝薬G2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>活力の宝薬G2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知力の宝薬G2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心力の宝薬G2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コザマル・カモミール</t>
+  </si>
+  <si>
+    <t>コザマル・カモミール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドローレル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーカリ</t>
+  </si>
+  <si>
+    <t>ユーカリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剛力の宝水G2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眼力の宝水G2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>活力の宝水G2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知力の宝水G2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心力の宝水G2</t>
+  </si>
+  <si>
+    <t>心力の宝水G2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノパルフラワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドパセリ</t>
+  </si>
+  <si>
+    <t>オールドキングダム・インデックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オールドキングダム・ラウンドブラシ</t>
+  </si>
+  <si>
+    <t>オールドキングダム・コーデックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルエージングインゴット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イペー材</t>
+  </si>
+  <si>
+    <t>タングステン・エンチャントインク</t>
+  </si>
+  <si>
+    <t>幻葉の霊砂</t>
+  </si>
+  <si>
+    <t>幻海の霊砂</t>
+  </si>
+  <si>
+    <t>スターリングシルバーインゴット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海島綿布</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イペー材</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカシア・ラウンドブラシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴンフォテリウム・コーデックス</t>
+  </si>
+  <si>
+    <t>アカシア材</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴンフォテリウムレザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タングステン・エンチャントインク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーセネット織物</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトゴールドインゴット</t>
+  </si>
+  <si>
+    <t>ホワイトゴールドインゴット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダークマホガニー材</t>
+  </si>
+  <si>
+    <t>ゴンフォテリウム・グリモア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨匠の薬液</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天水</t>
+  </si>
+  <si>
+    <t>天水</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャイチャの刃爪</t>
+  </si>
+  <si>
+    <t>チャイチャの刃爪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブック・オブ・カザナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カザナルインゴット</t>
+  </si>
+  <si>
+    <t>クラロウォルナット材</t>
+  </si>
+  <si>
+    <t>大聖水</t>
+  </si>
+  <si>
+    <t>クラロウォルナット・フラットブラシ</t>
+  </si>
+  <si>
+    <t>サンダーヤードシルク</t>
+  </si>
+  <si>
+    <t>ワード・オブ・カザナル</t>
+  </si>
+  <si>
+    <t>活力の宝薬</t>
+  </si>
+  <si>
+    <t>心力の宝薬</t>
+  </si>
+  <si>
+    <t>剛力の宝薬</t>
+  </si>
+  <si>
+    <t>眼力の宝薬</t>
+  </si>
+  <si>
+    <t>知力の宝薬</t>
+  </si>
+  <si>
+    <t>アックスビークの翼膜</t>
+  </si>
+  <si>
+    <t>グロースフォーミュラ・ラムダ</t>
+  </si>
+  <si>
+    <t>ロイヤルメープル樹液</t>
+  </si>
+  <si>
+    <t>ポイズンフロッグの粘液</t>
+  </si>
+  <si>
+    <t>シルバリオ・グリモア</t>
+  </si>
+  <si>
+    <t>ウコギ・アングルブラシ</t>
+  </si>
+  <si>
+    <t>シルバリオ・コーデックス</t>
+  </si>
+  <si>
+    <t>ハンマーヘッドダイル・インデックス</t>
+  </si>
+  <si>
+    <t>セイバ・ラウンドブラシ</t>
+  </si>
+  <si>
+    <t>ハンマーヘッドダイル・コーデックス</t>
+  </si>
+  <si>
+    <t>シルバリオレザー</t>
+  </si>
+  <si>
+    <t>ウコギ材</t>
+  </si>
+  <si>
+    <t>マンガン・エンチャントインク</t>
+  </si>
+  <si>
+    <t>ムーンゲル</t>
+  </si>
+  <si>
+    <t>ハンマーヘッドダイルレザー</t>
+  </si>
+  <si>
+    <t>セイバ材</t>
+  </si>
+  <si>
+    <t>スタークォーツ</t>
+  </si>
+  <si>
+    <t>剛力の宝水</t>
+  </si>
+  <si>
+    <t>眼力の宝水</t>
+  </si>
+  <si>
+    <t>活力の宝水</t>
+  </si>
+  <si>
+    <t>知力の宝水</t>
+  </si>
+  <si>
+    <t>心力の宝水</t>
+  </si>
+  <si>
+    <t>レッサーアポリオンの甲殻</t>
+  </si>
+  <si>
+    <t>スイートアリッサム</t>
+  </si>
+  <si>
+    <t>ライトガーベラ</t>
+  </si>
+  <si>
+    <t>ライムバジル</t>
+  </si>
+  <si>
+    <t>ピナータラベンダー</t>
+  </si>
+  <si>
+    <t>タイガーリリー</t>
+  </si>
+  <si>
+    <t>コバルトタングステン鉱</t>
+  </si>
+  <si>
+    <t>虹綿</t>
+  </si>
+  <si>
+    <t>ブラーシャ・グリモア</t>
+  </si>
+  <si>
+    <t>ダークマホガニー・ラウンドブラシ</t>
+  </si>
+  <si>
+    <t>ブラーシャ・コーデックス</t>
+  </si>
+  <si>
+    <t>名匠の薬液</t>
+  </si>
+  <si>
+    <t>マグネシア砥石</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マグネシア粉</t>
+  </si>
+  <si>
+    <t>ウォータークリスタル</t>
+  </si>
+  <si>
+    <t>ブラーシャレザー</t>
+  </si>
+  <si>
+    <t>高山亜麻布</t>
+  </si>
+  <si>
+    <t>ダークマホガニー材</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イフイカナイト</t>
+  </si>
+  <si>
+    <t>イペー原木</t>
+  </si>
+  <si>
+    <t>シュバラールのワニス</t>
+  </si>
+  <si>
+    <t>ウィンドクラスター</t>
+  </si>
+  <si>
+    <t>アイスクラスター</t>
+  </si>
+  <si>
+    <t>オールドキングダム・パルチザン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラックスター</t>
+  </si>
+  <si>
+    <t>ブラックスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剛力の宝水G2</t>
+  </si>
+  <si>
+    <t>幻岩の霊砂</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オールドキングダム・セプター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知力の宝水G2</t>
+  </si>
+  <si>
+    <t>オールドキングダム・キャンドルロッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オールドキングダム・ストライカーフード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海島綿布</t>
+  </si>
+  <si>
+    <t>オールドキングダム・スカウトフード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オールドキングダム・レンジャーベレー</t>
+  </si>
+  <si>
+    <t>オールドキングダム・キャスターフード</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ヒーラーベレー</t>
+  </si>
+  <si>
+    <t>眼力の宝水G2</t>
+  </si>
+  <si>
+    <t>アカシア材</t>
+  </si>
+  <si>
+    <t>アカシア原木</t>
+  </si>
+  <si>
+    <t>ウィンドクリスタル</t>
+  </si>
+  <si>
+    <t>アカシア・フォーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカシア・ロングボウ</t>
+  </si>
+  <si>
+    <t>アカシア・イヤリング</t>
+  </si>
+  <si>
+    <t>アカシア・ネックレス</t>
+  </si>
+  <si>
+    <t>アカシア・ブレスレット</t>
+  </si>
+  <si>
+    <t>アカシア・リング</t>
+  </si>
+  <si>
+    <t>アカシア・ロッド</t>
+  </si>
+  <si>
+    <t>アカシア・シグナム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカシア・グラインディングホイール</t>
+  </si>
+  <si>
+    <t>アカシア・スピニングホイール</t>
+  </si>
+  <si>
+    <t>アカシア・フィッシングロッド</t>
+  </si>
+  <si>
+    <t>クラロウォルナット・スピア</t>
+  </si>
+  <si>
+    <t>クラロウォルナット・ケーン</t>
+  </si>
+  <si>
+    <t>クラロウォルナット・グラインディングホイール</t>
+  </si>
+  <si>
+    <t>クラロウォルナット・スピニングホイール</t>
+  </si>
+  <si>
+    <t>クラロウォルナット・ギャザラーネックレス</t>
+  </si>
+  <si>
+    <t>クラロウォルナット・ギャザラーブレスレット</t>
+  </si>
+  <si>
+    <t>クラロウォルナット・フィッシングロッド</t>
+  </si>
+  <si>
+    <t>クラロウォルナット・クラフターサンダル</t>
+  </si>
+  <si>
+    <t>クラロウォルナット・ギャザラーサンダル</t>
+  </si>
+  <si>
+    <t>アイスクリスタル</t>
+  </si>
+  <si>
+    <t>ゴールドチタンナゲット</t>
+  </si>
+  <si>
+    <t>ピンクベリル</t>
+  </si>
+  <si>
+    <t>マグネシア砥石</t>
+  </si>
+  <si>
+    <t>コバルトタングステンインゴット</t>
+  </si>
+  <si>
+    <t>クラロウォルナット原木</t>
+  </si>
+  <si>
+    <t>ガルガンチュアレザー</t>
+  </si>
+  <si>
+    <t>ゴンフォテリウムレザー</t>
   </si>
 </sst>
 </file>
@@ -559,31 +1038,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393F44A2-1D26-4A69-A184-BAA21B4A8AB7}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
     <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
     <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
     <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="23.625" customWidth="1"/>
     <col min="10" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
     <col min="12" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="20.625" customWidth="1"/>
+    <col min="13" max="13" width="23.625" customWidth="1"/>
     <col min="14" max="14" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="20.625" customWidth="1"/>
+    <col min="15" max="15" width="23.625" customWidth="1"/>
     <col min="16" max="16" width="8.625" customWidth="1"/>
-    <col min="17" max="17" width="20.625" customWidth="1"/>
+    <col min="17" max="17" width="23.625" customWidth="1"/>
     <col min="18" max="18" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -645,77 +1124,95 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N3">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -733,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -755,6 +1252,3002 @@
       </c>
       <c r="N4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>8</v>
+      </c>
+      <c r="M28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <v>8</v>
+      </c>
+      <c r="M30" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
+      <c r="M31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32">
+        <v>8</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="M34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <v>8</v>
+      </c>
+      <c r="M35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>100</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <v>8</v>
+      </c>
+      <c r="M42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>100</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43">
+        <v>8</v>
+      </c>
+      <c r="M43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>100</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45">
+        <v>8</v>
+      </c>
+      <c r="M45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46">
+        <v>8</v>
+      </c>
+      <c r="M46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>131</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48" t="s">
+        <v>136</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>130</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>131</v>
+      </c>
+      <c r="P48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>138</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>130</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>131</v>
+      </c>
+      <c r="P49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50" t="s">
+        <v>56</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>130</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>131</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>135</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51" t="s">
+        <v>55</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
+        <v>130</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>131</v>
+      </c>
+      <c r="P51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>130</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>131</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>146</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
+        <v>130</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53" t="s">
+        <v>131</v>
+      </c>
+      <c r="P53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>138</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>130</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>131</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>45</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>130</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>131</v>
+      </c>
+      <c r="P55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>172</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>173</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>149</v>
+      </c>
+      <c r="L57">
+        <v>8</v>
+      </c>
+      <c r="M57" t="s">
+        <v>170</v>
+      </c>
+      <c r="N57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>174</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>149</v>
+      </c>
+      <c r="L58">
+        <v>8</v>
+      </c>
+      <c r="M58" t="s">
+        <v>170</v>
+      </c>
+      <c r="N58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>172</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>149</v>
+      </c>
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="K59" t="s">
+        <v>170</v>
+      </c>
+      <c r="L59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>149</v>
+      </c>
+      <c r="J60">
+        <v>8</v>
+      </c>
+      <c r="K60" t="s">
+        <v>170</v>
+      </c>
+      <c r="L60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>172</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>149</v>
+      </c>
+      <c r="J61">
+        <v>8</v>
+      </c>
+      <c r="K61" t="s">
+        <v>170</v>
+      </c>
+      <c r="L61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>149</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62" t="s">
+        <v>170</v>
+      </c>
+      <c r="J62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>172</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>149</v>
+      </c>
+      <c r="L63">
+        <v>8</v>
+      </c>
+      <c r="M63" t="s">
+        <v>170</v>
+      </c>
+      <c r="N63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>172</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>68</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>149</v>
+      </c>
+      <c r="L64">
+        <v>8</v>
+      </c>
+      <c r="M64" t="s">
+        <v>170</v>
+      </c>
+      <c r="N64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>149</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65" t="s">
+        <v>170</v>
+      </c>
+      <c r="J65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>174</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>149</v>
+      </c>
+      <c r="J66">
+        <v>8</v>
+      </c>
+      <c r="K66" t="s">
+        <v>170</v>
+      </c>
+      <c r="L66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>174</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>149</v>
+      </c>
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="K67" t="s">
+        <v>170</v>
+      </c>
+      <c r="L67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>76</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>171</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>173</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>149</v>
+      </c>
+      <c r="L69">
+        <v>8</v>
+      </c>
+      <c r="M69" t="s">
+        <v>170</v>
+      </c>
+      <c r="N69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>78</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>149</v>
+      </c>
+      <c r="L70">
+        <v>8</v>
+      </c>
+      <c r="M70" t="s">
+        <v>170</v>
+      </c>
+      <c r="N70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>66</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>149</v>
+      </c>
+      <c r="J71">
+        <v>8</v>
+      </c>
+      <c r="K71" t="s">
+        <v>170</v>
+      </c>
+      <c r="L71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>133</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>173</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>149</v>
+      </c>
+      <c r="J72">
+        <v>8</v>
+      </c>
+      <c r="K72" t="s">
+        <v>170</v>
+      </c>
+      <c r="L72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>176</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>149</v>
+      </c>
+      <c r="J73">
+        <v>8</v>
+      </c>
+      <c r="K73" t="s">
+        <v>170</v>
+      </c>
+      <c r="L73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>176</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>133</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>149</v>
+      </c>
+      <c r="J74">
+        <v>8</v>
+      </c>
+      <c r="K74" t="s">
+        <v>170</v>
+      </c>
+      <c r="L74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>76</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>147</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>149</v>
+      </c>
+      <c r="J75">
+        <v>8</v>
+      </c>
+      <c r="K75" t="s">
+        <v>170</v>
+      </c>
+      <c r="L75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>176</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>177</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>149</v>
+      </c>
+      <c r="J76">
+        <v>8</v>
+      </c>
+      <c r="K76" t="s">
+        <v>170</v>
+      </c>
+      <c r="L76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>176</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>177</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>149</v>
+      </c>
+      <c r="J77">
+        <v>8</v>
+      </c>
+      <c r="K77" t="s">
+        <v>170</v>
+      </c>
+      <c r="L77">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/crafting_data.xlsx
+++ b/crafting_data.xlsx
@@ -2,18 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Prg\Python\RecipeResearcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD566B27-9DBF-4B4B-BB5F-098857DE4326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C33E0C-019D-419F-B676-C78F4CD15EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{610EC80C-3ECE-4071-8F37-165773554FF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="6" xr2:uid="{610EC80C-3ECE-4071-8F37-165773554FF6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="木工師" sheetId="2" r:id="rId1"/>
+    <sheet name="鍛冶師" sheetId="3" r:id="rId2"/>
+    <sheet name="甲冑師" sheetId="4" r:id="rId3"/>
+    <sheet name="彫金師" sheetId="6" r:id="rId4"/>
+    <sheet name="革細工師" sheetId="5" r:id="rId5"/>
+    <sheet name="裁縫師" sheetId="7" r:id="rId6"/>
+    <sheet name="錬金術師" sheetId="1" r:id="rId7"/>
+    <sheet name="調理師" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="367">
   <si>
     <t>完成品名</t>
   </si>
@@ -643,6 +650,583 @@
   </si>
   <si>
     <t>ゴンフォテリウムレザー</t>
+  </si>
+  <si>
+    <t>マルエージングインゴット</t>
+  </si>
+  <si>
+    <t>混鉄鉱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷却触媒</t>
+  </si>
+  <si>
+    <t>ファイアクラスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アースクラスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オールドキングダム・ブロードソード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カザナルインゴット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>活力の宝水G2</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ラブリュス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オールドキングダム・クレイモア</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ガンブレード</t>
+  </si>
+  <si>
+    <t>オールドキングダム・シックル</t>
+  </si>
+  <si>
+    <t>オールドキングダム・パタ</t>
+  </si>
+  <si>
+    <t>オールドキングダム・サムライブレード</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ツインファング</t>
+  </si>
+  <si>
+    <t>オールドキングダム・カルバリン</t>
+  </si>
+  <si>
+    <t>オールドキングダム・チャクラム</t>
+  </si>
+  <si>
+    <t>スターリングシルバーインゴット</t>
+  </si>
+  <si>
+    <t>幻岩の霊砂</t>
+  </si>
+  <si>
+    <t>プルスサウルスレザー</t>
+  </si>
+  <si>
+    <t>ゴールドチタンナゲット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールドチタン鉱</t>
+  </si>
+  <si>
+    <t>硬金砂</t>
+  </si>
+  <si>
+    <t>ファイアクリスタル</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・ファルシオン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アースクリスタル</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・バトルアクス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールドチタン・グレートソード</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・ガンブレード</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・クロー</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・ブレード</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・ダブルサーベル</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・ハンドガン</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・ウォーコイト</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・シックル</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・ナイフ</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・ソー</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・クローハンマー</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・クロスペインハンマー</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・ファイル</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・レイジングハンマー</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・プライヤー</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・ラピダリーハンマー</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・レザーワーカーナイフ</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・アウル</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・モーター</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・クリナリーナイフ</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・ピック</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・モール</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・ハチェット</t>
+  </si>
+  <si>
+    <t>ゴールドチタン・ガーデンサイズ</t>
+  </si>
+  <si>
+    <t>黒鉄鉱</t>
+  </si>
+  <si>
+    <t>カザナル・カッツバルゲル</t>
+  </si>
+  <si>
+    <t>カザナル・ラブリュス</t>
+  </si>
+  <si>
+    <t>カザナル・グレートソード</t>
+  </si>
+  <si>
+    <t>カザナル・ガンブレード</t>
+  </si>
+  <si>
+    <t>カザナル・トンファー</t>
+  </si>
+  <si>
+    <t>カザナル・サムライブレード</t>
+  </si>
+  <si>
+    <t>カザナル・ツインファング</t>
+  </si>
+  <si>
+    <t>カザナル・ボウ</t>
+  </si>
+  <si>
+    <t>カザナル・ブランダーバス</t>
+  </si>
+  <si>
+    <t>カザナル・チャクラム</t>
+  </si>
+  <si>
+    <t>カザナル・ウォーサイズ</t>
+  </si>
+  <si>
+    <t>カザナル・ダガー</t>
+  </si>
+  <si>
+    <t>カザナル・クローハンマー</t>
+  </si>
+  <si>
+    <t>カザナル・ファイル</t>
+  </si>
+  <si>
+    <t>カザナル・プライヤー</t>
+  </si>
+  <si>
+    <t>カザナル・アウル</t>
+  </si>
+  <si>
+    <t>カザナル・モーター</t>
+  </si>
+  <si>
+    <t>カザナル・クリナリーナイフ</t>
+  </si>
+  <si>
+    <t>カザナル・モール</t>
+  </si>
+  <si>
+    <t>カザナル・ガーデンサイズ</t>
+  </si>
+  <si>
+    <t>カザナル・ソー</t>
+  </si>
+  <si>
+    <t>カザナル・クロスペインハンマー</t>
+  </si>
+  <si>
+    <t>カザナル・レイジングハンマー</t>
+  </si>
+  <si>
+    <t>カザナル・ラピダリーハンマー</t>
+  </si>
+  <si>
+    <t>カザナル・ラウンドナイフ</t>
+  </si>
+  <si>
+    <t>カザナル・ピック</t>
+  </si>
+  <si>
+    <t>カザナル・ハチェット</t>
+  </si>
+  <si>
+    <t>ロネークサージ</t>
+  </si>
+  <si>
+    <t>オルコクロマイトインゴット</t>
+  </si>
+  <si>
+    <t>オルコクロマイトインゴット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オルコクロマイト</t>
+  </si>
+  <si>
+    <t>輝水鉛鉱</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・キリジ</t>
+  </si>
+  <si>
+    <t>鉄雲母砥石</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・バトルアクス</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・ディバイダー</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・バヨネット</t>
+  </si>
+  <si>
+    <t>ラァーインゴット</t>
+  </si>
+  <si>
+    <t>オピオタウロスレザー</t>
+  </si>
+  <si>
+    <t>黄色火薬</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・ウォーサイズ</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・フィスト</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・ブレード</t>
+  </si>
+  <si>
+    <t>インテグラル材</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・ダガー</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・ツインファング</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・マスケトン</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・チャクラム</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・ソー</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・クローハンマー</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・クロスペインハンマー</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・ファイル</t>
+  </si>
+  <si>
+    <t>雪木綿布</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・レイジングハンマー</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・プライヤー</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・ラピダリーハンマー</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・レザーワーカーナイフ</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・アウル</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・モーター</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・クリナリーナイフ</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・ピック</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・モール</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・ハチェット</t>
+  </si>
+  <si>
+    <t>オルコクロマイト・ガーデンサイズ</t>
+  </si>
+  <si>
+    <t>ルテニウムインゴット</t>
+  </si>
+  <si>
+    <t>ルテニウム鉱</t>
+  </si>
+  <si>
+    <t>輝翠銀鉱</t>
+  </si>
+  <si>
+    <t>ルテニウム・グレートソード</t>
+  </si>
+  <si>
+    <t>ルテニウム・トンファー</t>
+  </si>
+  <si>
+    <t>ルテニウム・マスケトン</t>
+  </si>
+  <si>
+    <t>ルテニウム・シミター</t>
+  </si>
+  <si>
+    <t>ルテニウム・ウォーアクス</t>
+  </si>
+  <si>
+    <t>ルテニウム・ガンブレード</t>
+  </si>
+  <si>
+    <t>ルテニウム・ウォーサイズ</t>
+  </si>
+  <si>
+    <t>ルテニウム・ブレード</t>
+  </si>
+  <si>
+    <t>ルテニウム・ツインファング</t>
+  </si>
+  <si>
+    <t>鏡鉄鉱</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・シミター</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・アクス</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・ディバイダー</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・ソーバック</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・ナックル</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・ブレード</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・スマッシャー</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・ハンドゴンネ</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・グレイヴ</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・クローハンマー</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・ファイル</t>
+  </si>
+  <si>
+    <t>サーセネット織物</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・プライヤー</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・アウル</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・モーター</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・クリナリーナイフ</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・モール</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・ガーデンサイズ</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・ウォーサイズ</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・ククリ</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・ソー</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・クロスペインハンマー</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・レイジングハンマー</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・ラピダリーハンマー</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・レザーワーカーナイフ</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・ピック</t>
+  </si>
+  <si>
+    <t>コバルトタングステン・ハチェット</t>
+  </si>
+  <si>
+    <t>真銀鉱</t>
+  </si>
+  <si>
+    <t>壺匠の研磨剤</t>
+  </si>
+  <si>
+    <t>ファイアクラスター</t>
+  </si>
+  <si>
+    <t>トラルアルメン</t>
+  </si>
+  <si>
+    <t>プルスサウルスの粗皮</t>
+  </si>
+  <si>
+    <t>アースクラスター</t>
+  </si>
+  <si>
+    <t>海島綿</t>
+  </si>
+  <si>
+    <t>ペルペル綿糸</t>
+  </si>
+  <si>
+    <t>ライトニングクラスター</t>
+  </si>
+  <si>
+    <t>ホワイトゴールド鉱</t>
+  </si>
+  <si>
+    <t>硬金鉱</t>
+  </si>
+  <si>
+    <t>ブラックスター原石</t>
+  </si>
+  <si>
+    <t>ゴンフォテリウムの粗皮</t>
+  </si>
+  <si>
+    <t>アカシア樹皮</t>
+  </si>
+  <si>
+    <t>ガルガンチュアの粗皮</t>
+  </si>
+  <si>
+    <t>ロネークの獣毛</t>
+  </si>
+  <si>
+    <t>ライトニングクリスタル</t>
+  </si>
+  <si>
+    <t>帯雷繭</t>
+  </si>
+  <si>
+    <t>ラァー鉱</t>
+  </si>
+  <si>
+    <t>輝翠銀砂</t>
+  </si>
+  <si>
+    <t>イフイカナイト原石</t>
+  </si>
+  <si>
+    <t>ピンクベリル原石</t>
+  </si>
+  <si>
+    <t>アイアンウッド材</t>
+  </si>
+  <si>
+    <t>アイアンウッド原木</t>
+  </si>
+  <si>
+    <t>インテグラル原木</t>
+  </si>
+  <si>
+    <t>ホースチェスナット材</t>
+  </si>
+  <si>
+    <t>ホースチェスナット原木</t>
+  </si>
+  <si>
+    <t>パーム原木</t>
+  </si>
+  <si>
+    <t>パーム材</t>
+  </si>
+  <si>
+    <t>レッドパイン材</t>
+  </si>
+  <si>
+    <t>レッドパイン原木</t>
+  </si>
+  <si>
+    <t>マンガンインゴット</t>
+  </si>
+  <si>
+    <t>満俺鉱</t>
   </si>
 </sst>
 </file>
@@ -1037,11 +1621,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393F44A2-1D26-4A69-A184-BAA21B4A8AB7}">
-  <dimension ref="A1:R77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF54CE76-F2B8-4520-9BD0-523FDB796FA6}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1124,6 +1709,7468 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>131</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>131</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>130</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>149</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12" t="s">
+        <v>170</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>170</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>170</v>
+      </c>
+      <c r="N18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>170</v>
+      </c>
+      <c r="N19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>149</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24" t="s">
+        <v>170</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25" t="s">
+        <v>170</v>
+      </c>
+      <c r="N25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>170</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>149</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28" t="s">
+        <v>170</v>
+      </c>
+      <c r="L28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>170</v>
+      </c>
+      <c r="L29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>170</v>
+      </c>
+      <c r="L30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31" t="s">
+        <v>170</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>149</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>170</v>
+      </c>
+      <c r="L32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>356</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>357</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>358</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>359</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>360</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>362</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>361</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>363</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>364</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861573DB-FB87-4D18-8E0E-64B3EC9704F6}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:R132"/>
+  <sheetViews>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132:H132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="23.625" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="23.625" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="23.625" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>182</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>182</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>181</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>182</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>181</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>181</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>182</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>181</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>182</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>181</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>182</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>181</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>182</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>182</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>201</v>
+      </c>
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14" t="s">
+        <v>203</v>
+      </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>201</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15" t="s">
+        <v>203</v>
+      </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>201</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17" t="s">
+        <v>203</v>
+      </c>
+      <c r="N17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>201</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>203</v>
+      </c>
+      <c r="N18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>203</v>
+      </c>
+      <c r="N19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20" t="s">
+        <v>203</v>
+      </c>
+      <c r="N20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+      <c r="M21" t="s">
+        <v>203</v>
+      </c>
+      <c r="N21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22" t="s">
+        <v>203</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>201</v>
+      </c>
+      <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>203</v>
+      </c>
+      <c r="N23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24" t="s">
+        <v>203</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>201</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>203</v>
+      </c>
+      <c r="L30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31" t="s">
+        <v>203</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>203</v>
+      </c>
+      <c r="L32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>203</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34">
+        <v>8</v>
+      </c>
+      <c r="K34" t="s">
+        <v>203</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>201</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35" t="s">
+        <v>203</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>201</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>203</v>
+      </c>
+      <c r="L36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>201</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37" t="s">
+        <v>203</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>201</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>203</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>201</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39" t="s">
+        <v>203</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>173</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>201</v>
+      </c>
+      <c r="L41">
+        <v>8</v>
+      </c>
+      <c r="M41" t="s">
+        <v>203</v>
+      </c>
+      <c r="N41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>173</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>201</v>
+      </c>
+      <c r="L42">
+        <v>8</v>
+      </c>
+      <c r="M42" t="s">
+        <v>203</v>
+      </c>
+      <c r="N42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>173</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>201</v>
+      </c>
+      <c r="L43">
+        <v>8</v>
+      </c>
+      <c r="M43" t="s">
+        <v>203</v>
+      </c>
+      <c r="N43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>201</v>
+      </c>
+      <c r="L44">
+        <v>8</v>
+      </c>
+      <c r="M44" t="s">
+        <v>203</v>
+      </c>
+      <c r="N44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>172</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>201</v>
+      </c>
+      <c r="L45">
+        <v>8</v>
+      </c>
+      <c r="M45" t="s">
+        <v>203</v>
+      </c>
+      <c r="N45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>235</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>173</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>201</v>
+      </c>
+      <c r="L46">
+        <v>8</v>
+      </c>
+      <c r="M46" t="s">
+        <v>203</v>
+      </c>
+      <c r="N46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>236</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>173</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>201</v>
+      </c>
+      <c r="L47">
+        <v>8</v>
+      </c>
+      <c r="M47" t="s">
+        <v>203</v>
+      </c>
+      <c r="N47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>133</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>171</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>147</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>201</v>
+      </c>
+      <c r="L48">
+        <v>8</v>
+      </c>
+      <c r="M48" t="s">
+        <v>203</v>
+      </c>
+      <c r="N48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>238</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>172</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>201</v>
+      </c>
+      <c r="L49">
+        <v>8</v>
+      </c>
+      <c r="M49" t="s">
+        <v>203</v>
+      </c>
+      <c r="N49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>171</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>201</v>
+      </c>
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="M50" t="s">
+        <v>203</v>
+      </c>
+      <c r="N50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>171</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>147</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>201</v>
+      </c>
+      <c r="L51">
+        <v>8</v>
+      </c>
+      <c r="M51" t="s">
+        <v>203</v>
+      </c>
+      <c r="N51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>172</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>201</v>
+      </c>
+      <c r="L52">
+        <v>8</v>
+      </c>
+      <c r="M52" t="s">
+        <v>203</v>
+      </c>
+      <c r="N52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>242</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>173</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>201</v>
+      </c>
+      <c r="J53">
+        <v>8</v>
+      </c>
+      <c r="K53" t="s">
+        <v>203</v>
+      </c>
+      <c r="L53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>243</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>176</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>171</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>201</v>
+      </c>
+      <c r="J54">
+        <v>8</v>
+      </c>
+      <c r="K54" t="s">
+        <v>203</v>
+      </c>
+      <c r="L54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>173</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>201</v>
+      </c>
+      <c r="J55">
+        <v>8</v>
+      </c>
+      <c r="K55" t="s">
+        <v>203</v>
+      </c>
+      <c r="L55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>245</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>147</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>201</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56" t="s">
+        <v>203</v>
+      </c>
+      <c r="L56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>171</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>201</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="K57" t="s">
+        <v>203</v>
+      </c>
+      <c r="L57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>247</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>66</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>201</v>
+      </c>
+      <c r="J58">
+        <v>8</v>
+      </c>
+      <c r="K58" t="s">
+        <v>203</v>
+      </c>
+      <c r="L58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>171</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>201</v>
+      </c>
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="K59" t="s">
+        <v>203</v>
+      </c>
+      <c r="L59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>173</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>201</v>
+      </c>
+      <c r="J60">
+        <v>8</v>
+      </c>
+      <c r="K60" t="s">
+        <v>203</v>
+      </c>
+      <c r="L60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>173</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>201</v>
+      </c>
+      <c r="J61">
+        <v>8</v>
+      </c>
+      <c r="K61" t="s">
+        <v>203</v>
+      </c>
+      <c r="L61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>171</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>201</v>
+      </c>
+      <c r="J62">
+        <v>8</v>
+      </c>
+      <c r="K62" t="s">
+        <v>203</v>
+      </c>
+      <c r="L62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>252</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>171</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>201</v>
+      </c>
+      <c r="J63">
+        <v>8</v>
+      </c>
+      <c r="K63" t="s">
+        <v>203</v>
+      </c>
+      <c r="L63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>253</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>177</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>201</v>
+      </c>
+      <c r="J64">
+        <v>8</v>
+      </c>
+      <c r="K64" t="s">
+        <v>203</v>
+      </c>
+      <c r="L64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>173</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>201</v>
+      </c>
+      <c r="J65">
+        <v>8</v>
+      </c>
+      <c r="K65" t="s">
+        <v>203</v>
+      </c>
+      <c r="L65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>255</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>176</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>173</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>201</v>
+      </c>
+      <c r="J66">
+        <v>8</v>
+      </c>
+      <c r="K66" t="s">
+        <v>203</v>
+      </c>
+      <c r="L66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>256</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>173</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>201</v>
+      </c>
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="K67" t="s">
+        <v>203</v>
+      </c>
+      <c r="L67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>259</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>260</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>261</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>201</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>262</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>263</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>201</v>
+      </c>
+      <c r="L69">
+        <v>8</v>
+      </c>
+      <c r="M69" t="s">
+        <v>203</v>
+      </c>
+      <c r="N69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>264</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>103</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>263</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>201</v>
+      </c>
+      <c r="L70">
+        <v>8</v>
+      </c>
+      <c r="M70" t="s">
+        <v>203</v>
+      </c>
+      <c r="N70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>265</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>258</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>103</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>263</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>201</v>
+      </c>
+      <c r="L71">
+        <v>8</v>
+      </c>
+      <c r="M71" t="s">
+        <v>203</v>
+      </c>
+      <c r="N71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>266</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>258</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>267</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>268</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>269</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>201</v>
+      </c>
+      <c r="L72">
+        <v>8</v>
+      </c>
+      <c r="M72" t="s">
+        <v>203</v>
+      </c>
+      <c r="N72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>270</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>258</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>267</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>268</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>263</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>201</v>
+      </c>
+      <c r="L73">
+        <v>8</v>
+      </c>
+      <c r="M73" t="s">
+        <v>203</v>
+      </c>
+      <c r="N73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>271</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>258</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>267</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74" t="s">
+        <v>268</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>100</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>201</v>
+      </c>
+      <c r="L74">
+        <v>8</v>
+      </c>
+      <c r="M74" t="s">
+        <v>203</v>
+      </c>
+      <c r="N74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>272</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>258</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>267</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>273</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>263</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>201</v>
+      </c>
+      <c r="L75">
+        <v>8</v>
+      </c>
+      <c r="M75" t="s">
+        <v>203</v>
+      </c>
+      <c r="N75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>258</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>267</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>268</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>263</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>201</v>
+      </c>
+      <c r="L76">
+        <v>8</v>
+      </c>
+      <c r="M76" t="s">
+        <v>203</v>
+      </c>
+      <c r="N76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>275</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>258</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>267</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>263</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>201</v>
+      </c>
+      <c r="L77">
+        <v>8</v>
+      </c>
+      <c r="M77" t="s">
+        <v>203</v>
+      </c>
+      <c r="N77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>276</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>258</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>267</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78" t="s">
+        <v>268</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>269</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
+        <v>201</v>
+      </c>
+      <c r="L78">
+        <v>8</v>
+      </c>
+      <c r="M78" t="s">
+        <v>203</v>
+      </c>
+      <c r="N78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>277</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>258</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>267</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79" t="s">
+        <v>103</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>100</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>201</v>
+      </c>
+      <c r="L79">
+        <v>8</v>
+      </c>
+      <c r="M79" t="s">
+        <v>203</v>
+      </c>
+      <c r="N79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>278</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>258</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>201</v>
+      </c>
+      <c r="H80">
+        <v>8</v>
+      </c>
+      <c r="I80" t="s">
+        <v>203</v>
+      </c>
+      <c r="J80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>279</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>100</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>201</v>
+      </c>
+      <c r="J81">
+        <v>8</v>
+      </c>
+      <c r="K81" t="s">
+        <v>203</v>
+      </c>
+      <c r="L81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>280</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>258</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>100</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>201</v>
+      </c>
+      <c r="J82">
+        <v>8</v>
+      </c>
+      <c r="K82" t="s">
+        <v>203</v>
+      </c>
+      <c r="L82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>281</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>258</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>282</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>201</v>
+      </c>
+      <c r="H83">
+        <v>8</v>
+      </c>
+      <c r="I83" t="s">
+        <v>203</v>
+      </c>
+      <c r="J83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>283</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>201</v>
+      </c>
+      <c r="H84">
+        <v>8</v>
+      </c>
+      <c r="I84" t="s">
+        <v>203</v>
+      </c>
+      <c r="J84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>284</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>267</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>100</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>201</v>
+      </c>
+      <c r="J85">
+        <v>8</v>
+      </c>
+      <c r="K85" t="s">
+        <v>203</v>
+      </c>
+      <c r="L85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>285</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>100</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>201</v>
+      </c>
+      <c r="J86">
+        <v>8</v>
+      </c>
+      <c r="K86" t="s">
+        <v>203</v>
+      </c>
+      <c r="L86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>286</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>98</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>263</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>201</v>
+      </c>
+      <c r="J87">
+        <v>8</v>
+      </c>
+      <c r="K87" t="s">
+        <v>203</v>
+      </c>
+      <c r="L87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>287</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>258</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>267</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>201</v>
+      </c>
+      <c r="H88">
+        <v>8</v>
+      </c>
+      <c r="I88" t="s">
+        <v>203</v>
+      </c>
+      <c r="J88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>288</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>258</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>267</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>100</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>201</v>
+      </c>
+      <c r="J89">
+        <v>8</v>
+      </c>
+      <c r="K89" t="s">
+        <v>203</v>
+      </c>
+      <c r="L89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>289</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>258</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>267</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>201</v>
+      </c>
+      <c r="H90">
+        <v>8</v>
+      </c>
+      <c r="I90" t="s">
+        <v>203</v>
+      </c>
+      <c r="J90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>290</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>258</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>97</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>263</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>201</v>
+      </c>
+      <c r="J91">
+        <v>8</v>
+      </c>
+      <c r="K91" t="s">
+        <v>203</v>
+      </c>
+      <c r="L91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>258</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>98</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>201</v>
+      </c>
+      <c r="H92">
+        <v>8</v>
+      </c>
+      <c r="I92" t="s">
+        <v>203</v>
+      </c>
+      <c r="J92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>292</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>258</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>97</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>263</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>201</v>
+      </c>
+      <c r="J93">
+        <v>8</v>
+      </c>
+      <c r="K93" t="s">
+        <v>203</v>
+      </c>
+      <c r="L93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>293</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>258</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>98</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>263</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>201</v>
+      </c>
+      <c r="J94">
+        <v>8</v>
+      </c>
+      <c r="K94" t="s">
+        <v>203</v>
+      </c>
+      <c r="L94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>295</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>296</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>201</v>
+      </c>
+      <c r="H95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>297</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>294</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>101</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96" t="s">
+        <v>258</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>263</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="s">
+        <v>201</v>
+      </c>
+      <c r="L96">
+        <v>8</v>
+      </c>
+      <c r="M96" t="s">
+        <v>203</v>
+      </c>
+      <c r="N96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>298</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>294</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>102</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97" t="s">
+        <v>258</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>100</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>201</v>
+      </c>
+      <c r="L97">
+        <v>8</v>
+      </c>
+      <c r="M97" t="s">
+        <v>203</v>
+      </c>
+      <c r="N97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>299</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>294</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>127</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>98</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>269</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" t="s">
+        <v>201</v>
+      </c>
+      <c r="L98">
+        <v>8</v>
+      </c>
+      <c r="M98" t="s">
+        <v>203</v>
+      </c>
+      <c r="N98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>300</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>294</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>127</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>258</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
+        <v>263</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
+        <v>201</v>
+      </c>
+      <c r="L99">
+        <v>8</v>
+      </c>
+      <c r="M99" t="s">
+        <v>203</v>
+      </c>
+      <c r="N99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>301</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>294</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>102</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>258</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
+        <v>263</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
+        <v>201</v>
+      </c>
+      <c r="L100">
+        <v>8</v>
+      </c>
+      <c r="M100" t="s">
+        <v>203</v>
+      </c>
+      <c r="N100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>302</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>294</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" t="s">
+        <v>201</v>
+      </c>
+      <c r="L101">
+        <v>8</v>
+      </c>
+      <c r="M101" t="s">
+        <v>203</v>
+      </c>
+      <c r="N101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>303</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>294</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>127</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>258</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>263</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
+        <v>201</v>
+      </c>
+      <c r="L102">
+        <v>8</v>
+      </c>
+      <c r="M102" t="s">
+        <v>203</v>
+      </c>
+      <c r="N102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>304</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>294</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>102</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="s">
+        <v>258</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>263</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103" t="s">
+        <v>201</v>
+      </c>
+      <c r="L103">
+        <v>8</v>
+      </c>
+      <c r="M103" t="s">
+        <v>203</v>
+      </c>
+      <c r="N103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>305</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>294</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>127</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>258</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>263</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" t="s">
+        <v>201</v>
+      </c>
+      <c r="L104">
+        <v>8</v>
+      </c>
+      <c r="M104" t="s">
+        <v>203</v>
+      </c>
+      <c r="N104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>174</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>115</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>306</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>201</v>
+      </c>
+      <c r="H105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>307</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>174</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>172</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>102</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>263</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>201</v>
+      </c>
+      <c r="L106">
+        <v>8</v>
+      </c>
+      <c r="M106" t="s">
+        <v>203</v>
+      </c>
+      <c r="N106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>308</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>174</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>172</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>102</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>263</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" t="s">
+        <v>201</v>
+      </c>
+      <c r="L107">
+        <v>8</v>
+      </c>
+      <c r="M107" t="s">
+        <v>203</v>
+      </c>
+      <c r="N107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>309</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>174</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>124</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108" t="s">
+        <v>294</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108" t="s">
+        <v>263</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" t="s">
+        <v>201</v>
+      </c>
+      <c r="L108">
+        <v>8</v>
+      </c>
+      <c r="M108" t="s">
+        <v>203</v>
+      </c>
+      <c r="N108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>310</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>174</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>172</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>294</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
+        <v>269</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" t="s">
+        <v>201</v>
+      </c>
+      <c r="L109">
+        <v>8</v>
+      </c>
+      <c r="M109" t="s">
+        <v>203</v>
+      </c>
+      <c r="N109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>311</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>174</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>172</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>294</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>100</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" t="s">
+        <v>201</v>
+      </c>
+      <c r="L110">
+        <v>8</v>
+      </c>
+      <c r="M110" t="s">
+        <v>203</v>
+      </c>
+      <c r="N110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>312</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>174</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>172</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>294</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>263</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" t="s">
+        <v>201</v>
+      </c>
+      <c r="L111">
+        <v>8</v>
+      </c>
+      <c r="M111" t="s">
+        <v>203</v>
+      </c>
+      <c r="N111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>313</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>174</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>172</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>294</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>263</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" t="s">
+        <v>201</v>
+      </c>
+      <c r="L112">
+        <v>8</v>
+      </c>
+      <c r="M112" t="s">
+        <v>203</v>
+      </c>
+      <c r="N112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>314</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>174</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>172</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>294</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
+        <v>269</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" t="s">
+        <v>201</v>
+      </c>
+      <c r="L113">
+        <v>8</v>
+      </c>
+      <c r="M113" t="s">
+        <v>203</v>
+      </c>
+      <c r="N113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>315</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>174</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>172</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>294</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
+        <v>103</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114" t="s">
+        <v>201</v>
+      </c>
+      <c r="L114">
+        <v>8</v>
+      </c>
+      <c r="M114" t="s">
+        <v>203</v>
+      </c>
+      <c r="N114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>316</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>174</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>68</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>294</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115" t="s">
+        <v>201</v>
+      </c>
+      <c r="J115">
+        <v>8</v>
+      </c>
+      <c r="K115" t="s">
+        <v>203</v>
+      </c>
+      <c r="L115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>317</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>174</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>318</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>201</v>
+      </c>
+      <c r="H116">
+        <v>8</v>
+      </c>
+      <c r="I116" t="s">
+        <v>203</v>
+      </c>
+      <c r="J116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>319</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>174</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>172</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>294</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>201</v>
+      </c>
+      <c r="J117">
+        <v>8</v>
+      </c>
+      <c r="K117" t="s">
+        <v>203</v>
+      </c>
+      <c r="L117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>320</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>174</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>172</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>201</v>
+      </c>
+      <c r="H118">
+        <v>8</v>
+      </c>
+      <c r="I118" t="s">
+        <v>203</v>
+      </c>
+      <c r="J118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>321</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>174</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>172</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>294</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119" t="s">
+        <v>201</v>
+      </c>
+      <c r="J119">
+        <v>8</v>
+      </c>
+      <c r="K119" t="s">
+        <v>203</v>
+      </c>
+      <c r="L119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>322</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>174</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>172</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>201</v>
+      </c>
+      <c r="H120">
+        <v>8</v>
+      </c>
+      <c r="I120" t="s">
+        <v>203</v>
+      </c>
+      <c r="J120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>323</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>174</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>68</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" t="s">
+        <v>201</v>
+      </c>
+      <c r="H121">
+        <v>8</v>
+      </c>
+      <c r="I121" t="s">
+        <v>203</v>
+      </c>
+      <c r="J121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>324</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>174</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>68</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>294</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>201</v>
+      </c>
+      <c r="J122">
+        <v>8</v>
+      </c>
+      <c r="K122" t="s">
+        <v>203</v>
+      </c>
+      <c r="L122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>325</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>174</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>68</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123" t="s">
+        <v>294</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
+        <v>263</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123" t="s">
+        <v>201</v>
+      </c>
+      <c r="L123">
+        <v>8</v>
+      </c>
+      <c r="M123" t="s">
+        <v>203</v>
+      </c>
+      <c r="N123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>326</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>174</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>172</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>294</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124" t="s">
+        <v>263</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124" t="s">
+        <v>201</v>
+      </c>
+      <c r="L124">
+        <v>8</v>
+      </c>
+      <c r="M124" t="s">
+        <v>203</v>
+      </c>
+      <c r="N124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>327</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>174</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>68</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>201</v>
+      </c>
+      <c r="H125">
+        <v>8</v>
+      </c>
+      <c r="I125" t="s">
+        <v>203</v>
+      </c>
+      <c r="J125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>328</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>174</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>68</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>294</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126" t="s">
+        <v>201</v>
+      </c>
+      <c r="J126">
+        <v>8</v>
+      </c>
+      <c r="K126" t="s">
+        <v>203</v>
+      </c>
+      <c r="L126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>329</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>174</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>68</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>201</v>
+      </c>
+      <c r="H127">
+        <v>8</v>
+      </c>
+      <c r="I127" t="s">
+        <v>203</v>
+      </c>
+      <c r="J127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>330</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>174</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128" t="s">
+        <v>68</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>294</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>201</v>
+      </c>
+      <c r="J128">
+        <v>8</v>
+      </c>
+      <c r="K128" t="s">
+        <v>203</v>
+      </c>
+      <c r="L128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>331</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>174</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129" t="s">
+        <v>68</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>294</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129" t="s">
+        <v>201</v>
+      </c>
+      <c r="J129">
+        <v>8</v>
+      </c>
+      <c r="K129" t="s">
+        <v>203</v>
+      </c>
+      <c r="L129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>332</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>174</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>124</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
+        <v>294</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130" t="s">
+        <v>201</v>
+      </c>
+      <c r="J130">
+        <v>8</v>
+      </c>
+      <c r="K130" t="s">
+        <v>203</v>
+      </c>
+      <c r="L130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>333</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>174</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>124</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131" t="s">
+        <v>294</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>201</v>
+      </c>
+      <c r="J131">
+        <v>8</v>
+      </c>
+      <c r="K131" t="s">
+        <v>203</v>
+      </c>
+      <c r="L131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>365</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>366</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132" t="s">
+        <v>261</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>201</v>
+      </c>
+      <c r="H132">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC52F6C4-6FF1-4977-B4AA-21A11A1C0341}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="23.625" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="23.625" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="23.625" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B501B77E-EF36-4547-B066-E7E14256E436}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="23.625" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="23.625" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="23.625" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4904EFAC-B84D-44C7-A6D1-E39DD11CDB26}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="23.625" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="23.625" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="23.625" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AAB561-A480-4526-991F-898D092AD0CA}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="23.625" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="23.625" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="23.625" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393F44A2-1D26-4A69-A184-BAA21B4A8AB7}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:R46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="23.625" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="23.625" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="23.625" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2">
@@ -2468,7 +10515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -2512,7 +10559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -2556,7 +10603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -2600,7 +10647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -2632,7 +10679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -2664,7 +10711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -2696,7 +10743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -2728,7 +10775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>108</v>
       </c>
@@ -2760,7 +10807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2798,7 +10845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -2842,7 +10889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -2886,7 +10933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -2906,7 +10953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -2950,7 +10997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>120</v>
       </c>
@@ -2994,1260 +11041,97 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47">
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB33706-C70E-4D8E-8A85-76C1728C60C3}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="23.625" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="23.625" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="23.625" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E47" t="s">
-        <v>129</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47" t="s">
-        <v>130</v>
-      </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47" t="s">
-        <v>131</v>
-      </c>
-      <c r="J47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="G48" t="s">
-        <v>134</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48" t="s">
-        <v>41</v>
-      </c>
-      <c r="J48">
-        <v>2</v>
-      </c>
-      <c r="K48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48" t="s">
-        <v>130</v>
-      </c>
-      <c r="N48">
-        <v>3</v>
-      </c>
-      <c r="O48" t="s">
-        <v>131</v>
-      </c>
-      <c r="P48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="G49" t="s">
-        <v>77</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
-        <v>138</v>
-      </c>
-      <c r="J49">
-        <v>2</v>
-      </c>
-      <c r="K49" t="s">
-        <v>55</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49" t="s">
-        <v>130</v>
-      </c>
-      <c r="N49">
-        <v>3</v>
-      </c>
-      <c r="O49" t="s">
-        <v>131</v>
-      </c>
-      <c r="P49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50" t="s">
-        <v>77</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>46</v>
-      </c>
-      <c r="J50">
-        <v>2</v>
-      </c>
-      <c r="K50" t="s">
-        <v>56</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50" t="s">
-        <v>130</v>
-      </c>
-      <c r="N50">
-        <v>3</v>
-      </c>
-      <c r="O50" t="s">
-        <v>131</v>
-      </c>
-      <c r="P50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51" t="s">
-        <v>141</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="s">
-        <v>80</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>135</v>
-      </c>
-      <c r="J51">
-        <v>2</v>
-      </c>
-      <c r="K51" t="s">
-        <v>55</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51" t="s">
-        <v>130</v>
-      </c>
-      <c r="N51">
-        <v>3</v>
-      </c>
-      <c r="O51" t="s">
-        <v>131</v>
-      </c>
-      <c r="P51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>142</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>141</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="s">
-        <v>80</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
-        <v>42</v>
-      </c>
-      <c r="J52">
-        <v>2</v>
-      </c>
-      <c r="K52" t="s">
-        <v>55</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52" t="s">
-        <v>130</v>
-      </c>
-      <c r="N52">
-        <v>3</v>
-      </c>
-      <c r="O52" t="s">
-        <v>131</v>
-      </c>
-      <c r="P52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
-        <v>141</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="s">
-        <v>80</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
-        <v>146</v>
-      </c>
-      <c r="J53">
-        <v>2</v>
-      </c>
-      <c r="K53" t="s">
-        <v>55</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53" t="s">
-        <v>130</v>
-      </c>
-      <c r="N53">
-        <v>3</v>
-      </c>
-      <c r="O53" t="s">
-        <v>131</v>
-      </c>
-      <c r="P53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>144</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54" t="s">
-        <v>141</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>80</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54" t="s">
-        <v>138</v>
-      </c>
-      <c r="J54">
-        <v>2</v>
-      </c>
-      <c r="K54" t="s">
-        <v>55</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54" t="s">
-        <v>130</v>
-      </c>
-      <c r="N54">
-        <v>3</v>
-      </c>
-      <c r="O54" t="s">
-        <v>131</v>
-      </c>
-      <c r="P54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
-        <v>141</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="s">
-        <v>45</v>
-      </c>
-      <c r="J55">
-        <v>2</v>
-      </c>
-      <c r="K55" t="s">
-        <v>55</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55" t="s">
-        <v>130</v>
-      </c>
-      <c r="N55">
-        <v>3</v>
-      </c>
-      <c r="O55" t="s">
-        <v>131</v>
-      </c>
-      <c r="P55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>149</v>
-      </c>
-      <c r="F56">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>147</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>171</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57" t="s">
-        <v>172</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>173</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57" t="s">
-        <v>149</v>
-      </c>
-      <c r="L57">
-        <v>8</v>
-      </c>
-      <c r="M57" t="s">
-        <v>170</v>
-      </c>
-      <c r="N57">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>147</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>171</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-      <c r="G58" t="s">
-        <v>68</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
-        <v>174</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58" t="s">
-        <v>149</v>
-      </c>
-      <c r="L58">
-        <v>8</v>
-      </c>
-      <c r="M58" t="s">
-        <v>170</v>
-      </c>
-      <c r="N58">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="s">
-        <v>172</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>149</v>
-      </c>
-      <c r="J59">
-        <v>8</v>
-      </c>
-      <c r="K59" t="s">
-        <v>170</v>
-      </c>
-      <c r="L59">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>153</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>147</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="s">
-        <v>68</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>149</v>
-      </c>
-      <c r="J60">
-        <v>8</v>
-      </c>
-      <c r="K60" t="s">
-        <v>170</v>
-      </c>
-      <c r="L60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>154</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
-        <v>172</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>149</v>
-      </c>
-      <c r="J61">
-        <v>8</v>
-      </c>
-      <c r="K61" t="s">
-        <v>170</v>
-      </c>
-      <c r="L61">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>155</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
-        <v>149</v>
-      </c>
-      <c r="H62">
-        <v>8</v>
-      </c>
-      <c r="I62" t="s">
-        <v>170</v>
-      </c>
-      <c r="J62">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>156</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
-        <v>66</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-      <c r="G63" t="s">
-        <v>172</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>68</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63" t="s">
-        <v>149</v>
-      </c>
-      <c r="L63">
-        <v>8</v>
-      </c>
-      <c r="M63" t="s">
-        <v>170</v>
-      </c>
-      <c r="N63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>66</v>
-      </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-      <c r="G64" t="s">
-        <v>172</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>68</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64" t="s">
-        <v>149</v>
-      </c>
-      <c r="L64">
-        <v>8</v>
-      </c>
-      <c r="M64" t="s">
-        <v>170</v>
-      </c>
-      <c r="N64">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>66</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-      <c r="G65" t="s">
-        <v>149</v>
-      </c>
-      <c r="H65">
-        <v>8</v>
-      </c>
-      <c r="I65" t="s">
-        <v>170</v>
-      </c>
-      <c r="J65">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>159</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s">
-        <v>66</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="s">
-        <v>174</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>149</v>
-      </c>
-      <c r="J66">
-        <v>8</v>
-      </c>
-      <c r="K66" t="s">
-        <v>170</v>
-      </c>
-      <c r="L66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>160</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>147</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67" t="s">
-        <v>174</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="s">
-        <v>68</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67" t="s">
-        <v>149</v>
-      </c>
-      <c r="J67">
-        <v>8</v>
-      </c>
-      <c r="K67" t="s">
-        <v>170</v>
-      </c>
-      <c r="L67">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>175</v>
-      </c>
-      <c r="D68">
-        <v>5</v>
-      </c>
-      <c r="E68" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-      <c r="G69" t="s">
-        <v>171</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
-        <v>173</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69" t="s">
-        <v>149</v>
-      </c>
-      <c r="L69">
-        <v>8</v>
-      </c>
-      <c r="M69" t="s">
-        <v>170</v>
-      </c>
-      <c r="N69">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>162</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s">
-        <v>76</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-      <c r="G70" t="s">
-        <v>66</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
-        <v>78</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70" t="s">
-        <v>149</v>
-      </c>
-      <c r="L70">
-        <v>8</v>
-      </c>
-      <c r="M70" t="s">
-        <v>170</v>
-      </c>
-      <c r="N70">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>163</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s">
-        <v>76</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-      <c r="G71" t="s">
-        <v>66</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71" t="s">
-        <v>149</v>
-      </c>
-      <c r="J71">
-        <v>8</v>
-      </c>
-      <c r="K71" t="s">
-        <v>170</v>
-      </c>
-      <c r="L71">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>164</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s">
-        <v>133</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-      <c r="G72" t="s">
-        <v>173</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72" t="s">
-        <v>149</v>
-      </c>
-      <c r="J72">
-        <v>8</v>
-      </c>
-      <c r="K72" t="s">
-        <v>170</v>
-      </c>
-      <c r="L72">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>165</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>80</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="s">
-        <v>176</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
-        <v>149</v>
-      </c>
-      <c r="J73">
-        <v>8</v>
-      </c>
-      <c r="K73" t="s">
-        <v>170</v>
-      </c>
-      <c r="L73">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>166</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>77</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>176</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="s">
-        <v>133</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>149</v>
-      </c>
-      <c r="J74">
-        <v>8</v>
-      </c>
-      <c r="K74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L74">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>167</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-      <c r="E75" t="s">
-        <v>76</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-      <c r="G75" t="s">
-        <v>147</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75" t="s">
-        <v>149</v>
-      </c>
-      <c r="J75">
-        <v>8</v>
-      </c>
-      <c r="K75" t="s">
-        <v>170</v>
-      </c>
-      <c r="L75">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>168</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s">
-        <v>176</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="s">
-        <v>177</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76" t="s">
-        <v>149</v>
-      </c>
-      <c r="J76">
-        <v>8</v>
-      </c>
-      <c r="K76" t="s">
-        <v>170</v>
-      </c>
-      <c r="L76">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>77</v>
-      </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s">
-        <v>176</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" t="s">
-        <v>177</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77" t="s">
-        <v>149</v>
-      </c>
-      <c r="J77">
-        <v>8</v>
-      </c>
-      <c r="K77" t="s">
-        <v>170</v>
-      </c>
-      <c r="L77">
-        <v>8</v>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/crafting_data.xlsx
+++ b/crafting_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Prg\Python\RecipeResearcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C33E0C-019D-419F-B676-C78F4CD15EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AAE180-19AC-4740-AEF6-8F927A176F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="6" xr2:uid="{610EC80C-3ECE-4071-8F37-165773554FF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{610EC80C-3ECE-4071-8F37-165773554FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="木工師" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="658">
   <si>
     <t>完成品名</t>
   </si>
@@ -1227,6 +1227,891 @@
   </si>
   <si>
     <t>満俺鉱</t>
+  </si>
+  <si>
+    <t>ウコギ原木</t>
+  </si>
+  <si>
+    <t>ウコギ・グラインディングホイール</t>
+  </si>
+  <si>
+    <t>ウコギ・スピニングホイール</t>
+  </si>
+  <si>
+    <t>ウコギ・フィッシングロッド</t>
+  </si>
+  <si>
+    <t>ウコギ・ディフェンダーイヤリング</t>
+  </si>
+  <si>
+    <t>ウコギ・アタッカーイヤリング</t>
+  </si>
+  <si>
+    <t>ウコギ・レンジャーイヤリング</t>
+  </si>
+  <si>
+    <t>ウコギ・キャスターイヤリング</t>
+  </si>
+  <si>
+    <t>ウコギ・ヒーラーイヤリング</t>
+  </si>
+  <si>
+    <t>ウコギ・イヤリング</t>
+  </si>
+  <si>
+    <t>ウコギ・ネックレス</t>
+  </si>
+  <si>
+    <t>ウコギ・ブレスレット</t>
+  </si>
+  <si>
+    <t>ウコギ・リング</t>
+  </si>
+  <si>
+    <t>セイバ原木</t>
+  </si>
+  <si>
+    <t>セイバ・ロングボウ</t>
+  </si>
+  <si>
+    <t>セイバ・スタッフ</t>
+  </si>
+  <si>
+    <t>セイバ・クルーク</t>
+  </si>
+  <si>
+    <t>セイバ・スピア</t>
+  </si>
+  <si>
+    <t>セイバ・ウィング</t>
+  </si>
+  <si>
+    <t>ダークマホガニー原木</t>
+  </si>
+  <si>
+    <t>ダークマホガニー・ロングボウ</t>
+  </si>
+  <si>
+    <t>ダークマホガニー・ロッド</t>
+  </si>
+  <si>
+    <t>ダークマホガニー・ケーン</t>
+  </si>
+  <si>
+    <t>ダークマホガニー・グラインディングホイール</t>
+  </si>
+  <si>
+    <t>ダークマホガニー・スピニングホイール</t>
+  </si>
+  <si>
+    <t>ダークマホガニー・スピア</t>
+  </si>
+  <si>
+    <t>ダークマホガニー・フィッシングロッド</t>
+  </si>
+  <si>
+    <t>ダークマホガニー・ディフェンダーネックレス</t>
+  </si>
+  <si>
+    <t>ダークマホガニー・アタッカーネックレス</t>
+  </si>
+  <si>
+    <t>ダークマホガニー・レンジャーネックレス</t>
+  </si>
+  <si>
+    <t>ダークマホガニー・キャスターネックレス</t>
+  </si>
+  <si>
+    <t>ダークマホガニー・ヒーラーネックレス</t>
+  </si>
+  <si>
+    <t>コンドライトインゴット</t>
+  </si>
+  <si>
+    <t>コンドライト</t>
+  </si>
+  <si>
+    <t>闇霊銀鉱</t>
+  </si>
+  <si>
+    <t>ブルージルコン</t>
+  </si>
+  <si>
+    <t>ブルージルコン原石</t>
+  </si>
+  <si>
+    <t>鉄雲母</t>
+  </si>
+  <si>
+    <t>スタークォーツ原石</t>
+  </si>
+  <si>
+    <t>クンビーラレザー</t>
+  </si>
+  <si>
+    <t>クンビーラの粗皮</t>
+  </si>
+  <si>
+    <t>エブラーナアルメン</t>
+  </si>
+  <si>
+    <t>オピオタウロスの粗皮</t>
+  </si>
+  <si>
+    <t>紅草布</t>
+  </si>
+  <si>
+    <t>紅モコ草</t>
+  </si>
+  <si>
+    <t>カエアンビロード</t>
+  </si>
+  <si>
+    <t>カエアン綿</t>
+  </si>
+  <si>
+    <t>ペタルダの鱗粉</t>
+  </si>
+  <si>
+    <t>サイエンティスト・モノクル</t>
+  </si>
+  <si>
+    <t>マムーナイト</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ダガー</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ボウ</t>
+  </si>
+  <si>
+    <t>オールドキングダム・タック</t>
+  </si>
+  <si>
+    <t>オールドキングダム・プラニスフィア</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ミルプレーヴェ</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ディフェンダーイヤリング</t>
+  </si>
+  <si>
+    <t>オールドキングダム・アタッカーイヤリング</t>
+  </si>
+  <si>
+    <t>オールドキングダム・レンジャーイヤリング</t>
+  </si>
+  <si>
+    <t>オールドキングダム・キャスターイヤリング</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ヒーラーイヤリング</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ディフェンダーリストバンド</t>
+  </si>
+  <si>
+    <t>オールドキングダム・アタッカーリストバンド</t>
+  </si>
+  <si>
+    <t>オールドキングダム・レンジャーリストバンド</t>
+  </si>
+  <si>
+    <t>オールドキングダム・キャスターリストバンド</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ヒーラーリストバンド</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ディフェンダーリング</t>
+  </si>
+  <si>
+    <t>オールドキングダム・アタッカーリング</t>
+  </si>
+  <si>
+    <t>オールドキングダム・レンジャーリング</t>
+  </si>
+  <si>
+    <t>オールドキングダム・キャスターリング</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ヒーラーリング</t>
+  </si>
+  <si>
+    <t>サイエンティスト・グローブ</t>
+  </si>
+  <si>
+    <t>サイエンティスト・ブーツ</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ストライカーアームガード</t>
+  </si>
+  <si>
+    <t>オールドキングダム・スカウトアームガード</t>
+  </si>
+  <si>
+    <t>オールドキングダム・レンジャーグローブ</t>
+  </si>
+  <si>
+    <t>オールドキングダム・キャスターアームガード</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ヒーラーグローブ</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ストライカーシューズ</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ヒーラーシューズ</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ディフェンダーチョーカー</t>
+  </si>
+  <si>
+    <t>オールドキングダム・アタッカーチョーカー</t>
+  </si>
+  <si>
+    <t>オールドキングダム・レンジャーチョーカー</t>
+  </si>
+  <si>
+    <t>オールドキングダム・キャスターチョーカー</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ヒーラーチョーカー</t>
+  </si>
+  <si>
+    <t>サイエンティスト・コート</t>
+  </si>
+  <si>
+    <t>サイエンティスト・ブリーチ</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ストライカージャケット</t>
+  </si>
+  <si>
+    <t>オールドキングダム・スカウトジャケット</t>
+  </si>
+  <si>
+    <t>オールドキングダム・レンジャージャケット</t>
+  </si>
+  <si>
+    <t>オールドキングダム・キャスターコート</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ヒーラーコート</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ディフェンダーポレイン</t>
+  </si>
+  <si>
+    <t>オールドキングダム・スレイヤーポレイン</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ストライカーポレイン</t>
+  </si>
+  <si>
+    <t>オールドキングダム・スカウトポレイン</t>
+  </si>
+  <si>
+    <t>オールドキングダム・レンジャーポレイン</t>
+  </si>
+  <si>
+    <t>オールドキングダム・キャスターポレイン</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ヒーラーポレイン</t>
+  </si>
+  <si>
+    <t>ローストチキン</t>
+  </si>
+  <si>
+    <t>ラムプレスチキン</t>
+  </si>
+  <si>
+    <t>高山食塩</t>
+  </si>
+  <si>
+    <t>フラントーヨオイル</t>
+  </si>
+  <si>
+    <t>ヤースラニガーリック</t>
+  </si>
+  <si>
+    <t>リトルレモン</t>
+  </si>
+  <si>
+    <t>黄金の霊砂</t>
+  </si>
+  <si>
+    <t>ウォータークラスター</t>
+  </si>
+  <si>
+    <t>チキンパスタ</t>
+  </si>
+  <si>
+    <t>メスカル料理酒</t>
+  </si>
+  <si>
+    <t>ガレアンチーズ</t>
+  </si>
+  <si>
+    <t>ヴァーミセリ</t>
+  </si>
+  <si>
+    <t>シュラスコ</t>
+  </si>
+  <si>
+    <t>ブラウンカルダモン</t>
+  </si>
+  <si>
+    <t>ロネークの肩肉</t>
+  </si>
+  <si>
+    <t>高山岩塩</t>
+  </si>
+  <si>
+    <t>ムケッカ</t>
+  </si>
+  <si>
+    <t>トラルコーンオイル</t>
+  </si>
+  <si>
+    <t>ココナッツミルク</t>
+  </si>
+  <si>
+    <t>スワンプモンクのモモ肉</t>
+  </si>
+  <si>
+    <t>シナモンホイップコーヒー</t>
+  </si>
+  <si>
+    <t>ワイルドコーヒービーン</t>
+  </si>
+  <si>
+    <t>ホイップクリーム</t>
+  </si>
+  <si>
+    <t>パームシュガー</t>
+  </si>
+  <si>
+    <t>ヤクテル天然水</t>
+  </si>
+  <si>
+    <t>シナモン</t>
+  </si>
+  <si>
+    <t>コーヒーククルラスク</t>
+  </si>
+  <si>
+    <t>黒麦</t>
+  </si>
+  <si>
+    <t>スイートククルビーン</t>
+  </si>
+  <si>
+    <t>オウヴィボスの乳</t>
+  </si>
+  <si>
+    <t>ネーブルオレンジクッキー</t>
+  </si>
+  <si>
+    <t>ネーブルオレンジ</t>
+  </si>
+  <si>
+    <t>ロイヤルメープルシロップ</t>
+  </si>
+  <si>
+    <t>アップランド小麦粉</t>
+  </si>
+  <si>
+    <t>メスキート豆</t>
+  </si>
+  <si>
+    <t>発酵バター</t>
+  </si>
+  <si>
+    <t>パインオレンジゼリー</t>
+  </si>
+  <si>
+    <t>ゼラチン</t>
+  </si>
+  <si>
+    <t>トラルパイナップル</t>
+  </si>
+  <si>
+    <t>ロブスタービスク</t>
+  </si>
+  <si>
+    <t>ロイヤルロブスター</t>
+  </si>
+  <si>
+    <t>ウトォームトマト</t>
+  </si>
+  <si>
+    <t>ハピネスキャロット</t>
+  </si>
+  <si>
+    <t>ボイルドロブスター</t>
+  </si>
+  <si>
+    <t>北洋食塩</t>
+  </si>
+  <si>
+    <t>タコス・アル・パストール</t>
+  </si>
+  <si>
+    <t>ウトォームチリソース</t>
+  </si>
+  <si>
+    <t>黒麦粉</t>
+  </si>
+  <si>
+    <t>エイリアンオニオン</t>
+  </si>
+  <si>
+    <t>アルパカのフィレ肉</t>
+  </si>
+  <si>
+    <t>ホイップ・ホットココア</t>
+  </si>
+  <si>
+    <t>トラルフルーツのタルト</t>
+  </si>
+  <si>
+    <t>ブランチベアラーの果実</t>
+  </si>
+  <si>
+    <t>トラルアロエ</t>
+  </si>
+  <si>
+    <t>ノパルテンダーのトゥナ</t>
+  </si>
+  <si>
+    <t>エッグ・オブ・エルピス</t>
+  </si>
+  <si>
+    <t>ワイルドバナナスムージー</t>
+  </si>
+  <si>
+    <t>ワイルドジャティーカバナナ</t>
+  </si>
+  <si>
+    <t>テンダーショートケーキ</t>
+  </si>
+  <si>
+    <t>サーモンジャーキー</t>
+  </si>
+  <si>
+    <t>シャーローニサーモン</t>
+  </si>
+  <si>
+    <t>ナシゴレン</t>
+  </si>
+  <si>
+    <t>スターダストシュリンプ</t>
+  </si>
+  <si>
+    <t>ホワイトペッパー</t>
+  </si>
+  <si>
+    <t>ペリラオイル</t>
+  </si>
+  <si>
+    <t>ボンバライス</t>
+  </si>
+  <si>
+    <t>サンダーヤードシルク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オールドキングダム・キャスターシューズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローストロネーク</t>
+  </si>
+  <si>
+    <t>ダークビネガー</t>
+  </si>
+  <si>
+    <t>メスキートジュース</t>
+  </si>
+  <si>
+    <t>森の果実とアロエのゼリー</t>
+  </si>
+  <si>
+    <t>キャットフィッシュパイ</t>
+  </si>
+  <si>
+    <t>ウッドキャット</t>
+  </si>
+  <si>
+    <t>クリームマッシュルーム</t>
+  </si>
+  <si>
+    <t>アクアパッツァ</t>
+  </si>
+  <si>
+    <t>デヴォーションクラム</t>
+  </si>
+  <si>
+    <t>ビアナックブリーム</t>
+  </si>
+  <si>
+    <t>ロネークステーキ</t>
+  </si>
+  <si>
+    <t>ドラゴンペッパー</t>
+  </si>
+  <si>
+    <t>スタッフドピーマン</t>
+  </si>
+  <si>
+    <t>ピーマン</t>
+  </si>
+  <si>
+    <t>タコス・カルネ・アサーダ</t>
+  </si>
+  <si>
+    <t>サベネアンパプリカ</t>
+  </si>
+  <si>
+    <t>メスキートスープ</t>
+  </si>
+  <si>
+    <t>ジャイアントポポト</t>
+  </si>
+  <si>
+    <t>アルパカクリームパスタ</t>
+  </si>
+  <si>
+    <t>ブロッコリー</t>
+  </si>
+  <si>
+    <t>ブロコスピナッチソテー</t>
+  </si>
+  <si>
+    <t>ミストスピナッチ</t>
+  </si>
+  <si>
+    <t>メガマゲイの球茎</t>
+  </si>
+  <si>
+    <t>ボイルド・アルパカステーキ</t>
+  </si>
+  <si>
+    <t>ガラゴミント</t>
+  </si>
+  <si>
+    <t>オムライス</t>
+  </si>
+  <si>
+    <t>シュリンプカクテル</t>
+  </si>
+  <si>
+    <t>スワンプモンクのメスカルソースがけ</t>
+  </si>
+  <si>
+    <t>グリルドオルコトラウト</t>
+  </si>
+  <si>
+    <t>オルコトラウト</t>
+  </si>
+  <si>
+    <t>ロイヤルトースト</t>
+  </si>
+  <si>
+    <t>バナナパンズケーキ</t>
+  </si>
+  <si>
+    <t>照り焼きメープルチキン</t>
+  </si>
+  <si>
+    <t>ブレスト・オブ・エルピス</t>
+  </si>
+  <si>
+    <t>トラルコーン</t>
+  </si>
+  <si>
+    <t>オーリオ・ペペロンチーノ</t>
+  </si>
+  <si>
+    <t>スイートマフィン</t>
+  </si>
+  <si>
+    <t>シャーローニ・オイルシード</t>
+  </si>
+  <si>
+    <t>ガトーショコラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラルパイナップルケーキ</t>
+  </si>
+  <si>
+    <t>収集用のボイルド・アルパカステーキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収集用のバナナパンズケーキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収集用のトラルパイナップルケーキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収集用のサーモンジャーキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収集用のスタッフドピーマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収集用のタコス・カルネ・アサーダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラルコーンオイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンサカレー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンサの笹身</t>
+  </si>
+  <si>
+    <t>ハンサの笹身</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エルダーナツメグ</t>
+  </si>
+  <si>
+    <t>カルヌヤルク</t>
+  </si>
+  <si>
+    <t>ドマ茄子</t>
+  </si>
+  <si>
+    <t>スパイシーシャクシュカ</t>
+  </si>
+  <si>
+    <t>ヤーコウの肩肉</t>
+  </si>
+  <si>
+    <t>ブラッドトマト</t>
+  </si>
+  <si>
+    <t>レンティルカレー</t>
+  </si>
+  <si>
+    <t>エブラーナレンティル</t>
+  </si>
+  <si>
+    <t>スキール</t>
+  </si>
+  <si>
+    <t>ペパーミント</t>
+  </si>
+  <si>
+    <t>ジャイアントタラモサラータ</t>
+  </si>
+  <si>
+    <t>ボラ</t>
+  </si>
+  <si>
+    <t>ダークペッパー</t>
+  </si>
+  <si>
+    <t>ソルガーリック</t>
+  </si>
+  <si>
+    <t>ヤーコウムサカ</t>
+  </si>
+  <si>
+    <t>キューカンバー</t>
+  </si>
+  <si>
+    <t>賢人サンドイッチ</t>
+  </si>
+  <si>
+    <t>アイスバーグレタス</t>
+  </si>
+  <si>
+    <t>ノーザンヘリング</t>
+  </si>
+  <si>
+    <t>ソルトシャロウコッド</t>
+  </si>
+  <si>
+    <t>シャロウコッド</t>
+  </si>
+  <si>
+    <t>ココナッツコッドチャウダー</t>
+  </si>
+  <si>
+    <t>パスタ・オブ・エルピス</t>
+  </si>
+  <si>
+    <t>クリーム</t>
+  </si>
+  <si>
+    <t>ジャイアントポポトパンケーキ</t>
+  </si>
+  <si>
+    <t>黄金蜂蜜</t>
+  </si>
+  <si>
+    <t>チャイ・トゥ・ヴヌー</t>
+  </si>
+  <si>
+    <t>シデリティス茶葉</t>
+  </si>
+  <si>
+    <t>シデリティスクッキー</t>
+  </si>
+  <si>
+    <t>ディッシュ・オブ・エルピス</t>
+  </si>
+  <si>
+    <t>エイリアングラタンスープ</t>
+  </si>
+  <si>
+    <t>チキンストック</t>
+  </si>
+  <si>
+    <t>シューコンサラダ</t>
+  </si>
+  <si>
+    <t>シューコン</t>
+  </si>
+  <si>
+    <t>シューコンコンポート</t>
+  </si>
+  <si>
+    <t>クッキングワイン</t>
+  </si>
+  <si>
+    <t>ババロア・オ・シューコン</t>
+  </si>
+  <si>
+    <t>北洋岩塩</t>
+  </si>
+  <si>
+    <t>賢人パン</t>
+  </si>
+  <si>
+    <t>パープルカロット</t>
+  </si>
+  <si>
+    <t>ジュレック</t>
+  </si>
+  <si>
+    <t>地下天然水</t>
+  </si>
+  <si>
+    <t>ブロードビーン</t>
+  </si>
+  <si>
+    <t>サベネアンペリラ</t>
+  </si>
+  <si>
+    <t>パームシロップ</t>
+  </si>
+  <si>
+    <t>アームラサラダ</t>
+  </si>
+  <si>
+    <t>アームラ</t>
+  </si>
+  <si>
+    <t>アームララッシー</t>
+  </si>
+  <si>
+    <t>ミコッテ風島の幸串焼</t>
+  </si>
+  <si>
+    <t>キングクラブケーキ</t>
+  </si>
+  <si>
+    <t>イガグリガニ</t>
+  </si>
+  <si>
+    <t>ロリキートの卵</t>
+  </si>
+  <si>
+    <t>サイクロプスオニオン</t>
+  </si>
+  <si>
+    <t>ウハー</t>
+  </si>
+  <si>
+    <t>アイシィガー</t>
+  </si>
+  <si>
+    <t>ラセットポポト</t>
+  </si>
+  <si>
+    <t>ボルシチ</t>
+  </si>
+  <si>
+    <t>ビーツ</t>
+  </si>
+  <si>
+    <t>ココナッツ</t>
+  </si>
+  <si>
+    <t>ビーツスープ</t>
+  </si>
+  <si>
+    <t>エンペラースープ</t>
+  </si>
+  <si>
+    <t>チェスナット</t>
+  </si>
+  <si>
+    <t>ハピネスジュース</t>
+  </si>
+  <si>
+    <t>キャロットラペ</t>
+  </si>
+  <si>
+    <t>オールドキングダム・スクトゥム</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ディフェンダーヘルム</t>
+  </si>
+  <si>
+    <t>オールドキングダム・スレイヤーヘルム</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ディフェンダーキュイラス</t>
+  </si>
+  <si>
+    <t>オールドキングダム・スレイヤーキュイラス</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ディフェンダーヴァンブレイス</t>
+  </si>
+  <si>
+    <t>オールドキングダム・スレイヤーヴァンブレイス</t>
+  </si>
+  <si>
+    <t>オールドキングダム・ディフェンダーサバトン</t>
+  </si>
+  <si>
+    <t>オールドキングダム・スレイヤーサバトン</t>
+  </si>
+  <si>
+    <t>オールドキングダム・スカウトサバトン</t>
+  </si>
+  <si>
+    <t>オールドキングダム・レンジャーサバトン</t>
   </si>
 </sst>
 </file>
@@ -1623,10 +2508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF54CE76-F2B8-4520-9BD0-523FDB796FA6}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:F37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2963,15 +3848,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>356</v>
+        <v>98</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -2983,83 +3868,1233 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
+        <v>368</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>170</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>369</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>149</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35" t="s">
+        <v>170</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>370</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>149</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>170</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>371</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37" t="s">
+        <v>170</v>
+      </c>
+      <c r="J37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>372</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>282</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>170</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>373</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>282</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39" t="s">
+        <v>170</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>374</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>282</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>170</v>
+      </c>
+      <c r="J40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>375</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>376</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>267</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42" t="s">
+        <v>170</v>
+      </c>
+      <c r="J42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>377</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>149</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43" t="s">
+        <v>170</v>
+      </c>
+      <c r="J43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>378</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>170</v>
+      </c>
+      <c r="J44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>379</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>267</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>149</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45" t="s">
+        <v>170</v>
+      </c>
+      <c r="J45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>380</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>381</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>149</v>
+      </c>
+      <c r="L47">
+        <v>8</v>
+      </c>
+      <c r="M47" t="s">
+        <v>170</v>
+      </c>
+      <c r="N47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>382</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>267</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>103</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>149</v>
+      </c>
+      <c r="L48">
+        <v>8</v>
+      </c>
+      <c r="M48" t="s">
+        <v>170</v>
+      </c>
+      <c r="N48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>383</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>98</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>103</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>149</v>
+      </c>
+      <c r="L49">
+        <v>8</v>
+      </c>
+      <c r="M49" t="s">
+        <v>170</v>
+      </c>
+      <c r="N49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>384</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>258</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>263</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>149</v>
+      </c>
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="M50" t="s">
+        <v>170</v>
+      </c>
+      <c r="N50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>385</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>103</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>149</v>
+      </c>
+      <c r="L51">
+        <v>8</v>
+      </c>
+      <c r="M51" t="s">
+        <v>170</v>
+      </c>
+      <c r="N51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>386</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>387</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>294</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>100</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>149</v>
+      </c>
+      <c r="L53">
+        <v>8</v>
+      </c>
+      <c r="M53" t="s">
+        <v>170</v>
+      </c>
+      <c r="N53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>388</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>103</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>149</v>
+      </c>
+      <c r="L54">
+        <v>8</v>
+      </c>
+      <c r="M54" t="s">
+        <v>170</v>
+      </c>
+      <c r="N54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>389</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>103</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>149</v>
+      </c>
+      <c r="L55">
+        <v>8</v>
+      </c>
+      <c r="M55" t="s">
+        <v>170</v>
+      </c>
+      <c r="N55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>390</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>149</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56" t="s">
+        <v>170</v>
+      </c>
+      <c r="J56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>391</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>294</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>149</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="K57" t="s">
+        <v>170</v>
+      </c>
+      <c r="L57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>392</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>294</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>263</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>149</v>
+      </c>
+      <c r="L58">
+        <v>8</v>
+      </c>
+      <c r="M58" t="s">
+        <v>170</v>
+      </c>
+      <c r="N58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>393</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>102</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>149</v>
+      </c>
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="K59" t="s">
+        <v>170</v>
+      </c>
+      <c r="L59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>394</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>106</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>149</v>
+      </c>
+      <c r="J60">
+        <v>8</v>
+      </c>
+      <c r="K60" t="s">
+        <v>170</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>395</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>104</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>149</v>
+      </c>
+      <c r="J61">
+        <v>8</v>
+      </c>
+      <c r="K61" t="s">
+        <v>170</v>
+      </c>
+      <c r="L61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>396</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>149</v>
+      </c>
+      <c r="J62">
+        <v>8</v>
+      </c>
+      <c r="K62" t="s">
+        <v>170</v>
+      </c>
+      <c r="L62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>397</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>149</v>
+      </c>
+      <c r="J63">
+        <v>8</v>
+      </c>
+      <c r="K63" t="s">
+        <v>170</v>
+      </c>
+      <c r="L63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>398</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>108</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>149</v>
+      </c>
+      <c r="J64">
+        <v>8</v>
+      </c>
+      <c r="K64" t="s">
+        <v>170</v>
+      </c>
+      <c r="L64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>356</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>357</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
         <v>273</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
         <v>358</v>
       </c>
-      <c r="D34">
+      <c r="D66">
         <v>5</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E66" t="s">
         <v>149</v>
       </c>
-      <c r="F34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+      <c r="F66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
         <v>359</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
         <v>360</v>
       </c>
-      <c r="D35">
+      <c r="D67">
         <v>5</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E67" t="s">
         <v>149</v>
       </c>
-      <c r="F35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+      <c r="F67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
         <v>362</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
         <v>361</v>
       </c>
-      <c r="D36">
+      <c r="D68">
         <v>5</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E68" t="s">
         <v>149</v>
       </c>
-      <c r="F36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+      <c r="F68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
         <v>363</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
         <v>364</v>
       </c>
-      <c r="D37">
+      <c r="D69">
         <v>5</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E69" t="s">
         <v>149</v>
       </c>
-      <c r="F37">
+      <c r="F69">
         <v>8</v>
       </c>
     </row>
@@ -3072,10 +5107,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861573DB-FB87-4D18-8E0E-64B3EC9704F6}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R132"/>
+  <dimension ref="A1:R133"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132:H132"/>
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8386,6 +10421,32 @@
         <v>8</v>
       </c>
     </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>399</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>400</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>401</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>201</v>
+      </c>
+      <c r="H133">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8395,10 +10456,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC52F6C4-6FF1-4977-B4AA-21A11A1C0341}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="C12" sqref="C12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8479,6 +10540,544 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>339</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>339</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>339</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>339</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>653</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>339</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>339</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>655</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>339</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>339</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>657</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>339</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8488,10 +11087,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B501B77E-EF36-4547-B066-E7E14256E436}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H7"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8734,6 +11333,1116 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>405</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>336</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>336</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>130</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>336</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>130</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>336</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>130</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>336</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>130</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>336</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>422</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>185</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>336</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>336</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>130</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>336</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>130</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>336</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>130</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>336</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>428</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>130</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>336</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>130</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>336</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>430</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>130</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>336</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>431</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>130</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>336</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>432</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>185</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>130</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>336</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>130</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>336</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>434</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>130</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>336</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>435</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>130</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>336</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>436</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>130</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>336</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8743,10 +12452,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4904EFAC-B84D-44C7-A6D1-E39DD11CDB26}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8911,6 +12620,784 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>339</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>339</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>339</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>339</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>339</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>130</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>339</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>443</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>339</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>130</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>339</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>130</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>532</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>339</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>130</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>339</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>130</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>446</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>185</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>196</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>339</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>447</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>196</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>339</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>448</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>339</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>339</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>339</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>130</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8920,10 +13407,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AAB561-A480-4526-991F-898D092AD0CA}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9058,7 +13545,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>531</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -9074,6 +13561,722 @@
       </c>
       <c r="F4">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>342</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>342</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>342</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>342</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>130</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>342</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>342</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>130</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>185</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>342</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>130</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>459</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>342</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>130</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>342</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>130</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>461</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>342</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>463</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>342</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>464</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>342</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9085,10 +14288,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393F44A2-1D26-4A69-A184-BAA21B4A8AB7}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11041,6 +16244,38 @@
         <v>8</v>
       </c>
     </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>366</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>414</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11050,10 +16285,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB33706-C70E-4D8E-8A85-76C1728C60C3}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R1"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11134,6 +16369,4198 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>469</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>336</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>472</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>469</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>476</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>471</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>336</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>472</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>480</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>471</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>336</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>472</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>483</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>484</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>469</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>471</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>336</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>472</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>487</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>488</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>489</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>471</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>336</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>472</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>493</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>471</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>472</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>496</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>498</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>499</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>500</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>471</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>336</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>472</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>497</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>502</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>503</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>489</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>471</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>336</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>472</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>474</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>500</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>506</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>507</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>471</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>336</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>472</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>467</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>509</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>489</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>470</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>471</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>336</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>472</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>511</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>512</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>513</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>514</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>470</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>201</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>123</v>
+      </c>
+      <c r="R12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>515</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>493</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>489</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>494</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>488</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>201</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>516</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>517</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>503</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>518</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>519</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>512</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>520</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14">
+        <v>8</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>123</v>
+      </c>
+      <c r="R14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>521</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>522</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>517</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>494</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>489</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>488</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>201</v>
+      </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="O15" t="s">
+        <v>123</v>
+      </c>
+      <c r="P15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>523</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>487</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>519</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>498</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>488</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>520</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>201</v>
+      </c>
+      <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>123</v>
+      </c>
+      <c r="P16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>524</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>474</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>525</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>467</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>489</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>201</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>526</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>511</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>527</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>528</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>520</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>529</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>530</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>201</v>
+      </c>
+      <c r="P18">
+        <v>8</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>123</v>
+      </c>
+      <c r="R18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>533</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>482</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>479</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>469</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>534</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>201</v>
+      </c>
+      <c r="N19">
+        <v>8</v>
+      </c>
+      <c r="O19" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>535</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>522</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>503</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>519</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>489</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>488</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>201</v>
+      </c>
+      <c r="P20">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>123</v>
+      </c>
+      <c r="R20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>536</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>497</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>518</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>517</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>499</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>494</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>502</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>201</v>
+      </c>
+      <c r="P21">
+        <v>8</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>123</v>
+      </c>
+      <c r="R21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>537</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>467</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>538</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>469</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>498</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>539</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>201</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>540</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>474</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>541</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>542</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>506</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>468</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>201</v>
+      </c>
+      <c r="P23">
+        <v>8</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>543</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>482</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>467</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>479</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>544</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>469</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>534</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>201</v>
+      </c>
+      <c r="P24">
+        <v>8</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>123</v>
+      </c>
+      <c r="R24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>545</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>482</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>511</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>514</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>546</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>513</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>201</v>
+      </c>
+      <c r="N25">
+        <v>8</v>
+      </c>
+      <c r="O25" t="s">
+        <v>123</v>
+      </c>
+      <c r="P25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>547</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>479</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>512</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>528</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>469</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>513</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>548</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>201</v>
+      </c>
+      <c r="P26">
+        <v>8</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>123</v>
+      </c>
+      <c r="R26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>549</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>482</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>528</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>468</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>550</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>201</v>
+      </c>
+      <c r="P27">
+        <v>8</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>123</v>
+      </c>
+      <c r="R27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>551</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>552</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>520</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>512</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>514</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>468</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>201</v>
+      </c>
+      <c r="P28">
+        <v>8</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>123</v>
+      </c>
+      <c r="R28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>553</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>482</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>467</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>552</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>546</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>554</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>539</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>201</v>
+      </c>
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>123</v>
+      </c>
+      <c r="R29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>474</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>555</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>511</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>506</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>544</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>556</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>474</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>514</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>470</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>509</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>557</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>201</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+      <c r="O32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>558</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>511</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>530</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>520</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>494</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>500</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>201</v>
+      </c>
+      <c r="N33">
+        <v>8</v>
+      </c>
+      <c r="O33" t="s">
+        <v>123</v>
+      </c>
+      <c r="P33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>559</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>511</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>527</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>474</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>470</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>201</v>
+      </c>
+      <c r="N34">
+        <v>8</v>
+      </c>
+      <c r="O34" t="s">
+        <v>123</v>
+      </c>
+      <c r="P34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>467</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>480</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>560</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>474</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>484</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>467</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>529</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36" t="s">
+        <v>201</v>
+      </c>
+      <c r="L36">
+        <v>8</v>
+      </c>
+      <c r="M36" t="s">
+        <v>123</v>
+      </c>
+      <c r="N36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>561</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>467</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>562</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>470</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>201</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>123</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>497</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>563</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>497</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>497</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>520</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>494</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>500</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>201</v>
+      </c>
+      <c r="N39">
+        <v>8</v>
+      </c>
+      <c r="O39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>564</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>497</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>522</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>498</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>520</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>518</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>201</v>
+      </c>
+      <c r="N40">
+        <v>8</v>
+      </c>
+      <c r="O40" t="s">
+        <v>123</v>
+      </c>
+      <c r="P40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>565</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>497</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>467</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>512</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>566</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41" t="s">
+        <v>500</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>201</v>
+      </c>
+      <c r="N41">
+        <v>8</v>
+      </c>
+      <c r="O41" t="s">
+        <v>123</v>
+      </c>
+      <c r="P41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>482</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>567</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>568</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>482</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>544</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>468</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>498</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>201</v>
+      </c>
+      <c r="N43">
+        <v>8</v>
+      </c>
+      <c r="O43" t="s">
+        <v>123</v>
+      </c>
+      <c r="P43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>569</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>497</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>493</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>520</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>494</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>512</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>201</v>
+      </c>
+      <c r="N44">
+        <v>8</v>
+      </c>
+      <c r="O44" t="s">
+        <v>123</v>
+      </c>
+      <c r="P44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>487</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>570</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>571</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>487</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>493</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>498</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>520</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>500</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>488</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>201</v>
+      </c>
+      <c r="P46">
+        <v>8</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>123</v>
+      </c>
+      <c r="R46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>572</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>503</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>487</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>475</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>470</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>494</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>201</v>
+      </c>
+      <c r="N47">
+        <v>8</v>
+      </c>
+      <c r="O47" t="s">
+        <v>123</v>
+      </c>
+      <c r="P47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>573</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>474</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>514</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>470</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>557</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48" t="s">
+        <v>201</v>
+      </c>
+      <c r="L48">
+        <v>8</v>
+      </c>
+      <c r="M48" t="s">
+        <v>123</v>
+      </c>
+      <c r="N48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>574</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>497</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>522</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>498</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>520</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>201</v>
+      </c>
+      <c r="L49">
+        <v>8</v>
+      </c>
+      <c r="M49" t="s">
+        <v>123</v>
+      </c>
+      <c r="N49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>575</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>503</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>487</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>475</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>470</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>201</v>
+      </c>
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="M50" t="s">
+        <v>123</v>
+      </c>
+      <c r="N50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>576</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>474</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>525</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>467</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>489</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51" t="s">
+        <v>201</v>
+      </c>
+      <c r="L51">
+        <v>8</v>
+      </c>
+      <c r="M51" t="s">
+        <v>123</v>
+      </c>
+      <c r="N51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>577</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>579</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>511</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>514</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>546</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52" t="s">
+        <v>201</v>
+      </c>
+      <c r="L52">
+        <v>8</v>
+      </c>
+      <c r="M52" t="s">
+        <v>123</v>
+      </c>
+      <c r="N52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>578</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>479</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>512</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>528</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>469</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53" t="s">
+        <v>201</v>
+      </c>
+      <c r="L53">
+        <v>8</v>
+      </c>
+      <c r="M53" t="s">
+        <v>123</v>
+      </c>
+      <c r="N53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>580</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>582</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>483</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>583</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>498</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>500</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>507</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>201</v>
+      </c>
+      <c r="P54">
+        <v>8</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>123</v>
+      </c>
+      <c r="R54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>584</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>581</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>585</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>548</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>529</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>583</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>583</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>201</v>
+      </c>
+      <c r="P55">
+        <v>8</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>123</v>
+      </c>
+      <c r="R55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>586</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>587</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>548</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>588</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>520</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>583</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" t="s">
+        <v>529</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>201</v>
+      </c>
+      <c r="P56">
+        <v>8</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>123</v>
+      </c>
+      <c r="R56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>589</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>590</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>483</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>498</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>530</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
+        <v>507</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>201</v>
+      </c>
+      <c r="P57">
+        <v>8</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>123</v>
+      </c>
+      <c r="R57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>591</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>488</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>494</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>592</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>201</v>
+      </c>
+      <c r="L58">
+        <v>8</v>
+      </c>
+      <c r="M58" t="s">
+        <v>123</v>
+      </c>
+      <c r="N58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>593</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>594</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>550</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>470</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>529</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>595</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" t="s">
+        <v>596</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>201</v>
+      </c>
+      <c r="P59">
+        <v>8</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>123</v>
+      </c>
+      <c r="R59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>597</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>585</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>587</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>550</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>494</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>498</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" t="s">
+        <v>598</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>201</v>
+      </c>
+      <c r="P60">
+        <v>8</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>123</v>
+      </c>
+      <c r="R60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>599</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>512</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>600</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>601</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>520</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>513</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
+        <v>598</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>201</v>
+      </c>
+      <c r="P61">
+        <v>8</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>123</v>
+      </c>
+      <c r="R61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>602</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>603</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>509</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>470</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62" t="s">
+        <v>201</v>
+      </c>
+      <c r="J62">
+        <v>8</v>
+      </c>
+      <c r="K62" t="s">
+        <v>123</v>
+      </c>
+      <c r="L62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>604</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>603</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>483</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>548</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>71</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>588</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
+        <v>507</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>201</v>
+      </c>
+      <c r="P63">
+        <v>8</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>123</v>
+      </c>
+      <c r="R63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>605</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>476</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>587</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>520</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>475</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>595</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>606</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>201</v>
+      </c>
+      <c r="P64">
+        <v>8</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>123</v>
+      </c>
+      <c r="R64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>607</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>550</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>608</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>498</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>583</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>520</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65" t="s">
+        <v>509</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>201</v>
+      </c>
+      <c r="P65">
+        <v>8</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>123</v>
+      </c>
+      <c r="R65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>609</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>610</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>488</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>490</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>470</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
+        <v>201</v>
+      </c>
+      <c r="N66">
+        <v>8</v>
+      </c>
+      <c r="O66" t="s">
+        <v>123</v>
+      </c>
+      <c r="P66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>611</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>610</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>512</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>488</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>520</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>500</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67" t="s">
+        <v>201</v>
+      </c>
+      <c r="N67">
+        <v>8</v>
+      </c>
+      <c r="O67" t="s">
+        <v>123</v>
+      </c>
+      <c r="P67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>612</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>566</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>513</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>512</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>498</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>588</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68" t="s">
+        <v>509</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>201</v>
+      </c>
+      <c r="P68">
+        <v>8</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>123</v>
+      </c>
+      <c r="R68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>613</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>513</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>614</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>498</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>520</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>475</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69" t="s">
+        <v>509</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>201</v>
+      </c>
+      <c r="P69">
+        <v>8</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>123</v>
+      </c>
+      <c r="R69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>615</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>616</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>600</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>598</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>548</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>588</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70" t="s">
+        <v>513</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>201</v>
+      </c>
+      <c r="P70">
+        <v>8</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>123</v>
+      </c>
+      <c r="R70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>617</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>616</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>488</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>470</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>618</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71" t="s">
+        <v>201</v>
+      </c>
+      <c r="N71">
+        <v>8</v>
+      </c>
+      <c r="O71" t="s">
+        <v>123</v>
+      </c>
+      <c r="P71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>619</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>616</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>502</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>494</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>488</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>470</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72" t="s">
+        <v>71</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>201</v>
+      </c>
+      <c r="P72">
+        <v>8</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>123</v>
+      </c>
+      <c r="R72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>512</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>492</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>201</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>509</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>620</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>621</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>512</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>601</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>554</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>622</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75" t="s">
+        <v>201</v>
+      </c>
+      <c r="L75">
+        <v>8</v>
+      </c>
+      <c r="M75" t="s">
+        <v>123</v>
+      </c>
+      <c r="N75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>623</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>512</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>600</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>624</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>625</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>201</v>
+      </c>
+      <c r="L76">
+        <v>8</v>
+      </c>
+      <c r="M76" t="s">
+        <v>123</v>
+      </c>
+      <c r="N76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>529</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>626</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>201</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>488</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>627</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>201</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>628</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>629</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>600</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="s">
+        <v>548</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>588</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>201</v>
+      </c>
+      <c r="L79">
+        <v>8</v>
+      </c>
+      <c r="M79" t="s">
+        <v>123</v>
+      </c>
+      <c r="N79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>630</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>629</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>494</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>488</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>592</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80" t="s">
+        <v>201</v>
+      </c>
+      <c r="L80">
+        <v>8</v>
+      </c>
+      <c r="M80" t="s">
+        <v>123</v>
+      </c>
+      <c r="N80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>631</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>581</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>529</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>548</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>539</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
+        <v>201</v>
+      </c>
+      <c r="L81">
+        <v>8</v>
+      </c>
+      <c r="M81" t="s">
+        <v>123</v>
+      </c>
+      <c r="N81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>632</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>633</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>498</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>634</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>529</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
+        <v>635</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82" t="s">
+        <v>201</v>
+      </c>
+      <c r="N82">
+        <v>8</v>
+      </c>
+      <c r="O82" t="s">
+        <v>123</v>
+      </c>
+      <c r="P82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>636</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>637</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>638</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>624</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83" t="s">
+        <v>509</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
+        <v>596</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83" t="s">
+        <v>201</v>
+      </c>
+      <c r="N83">
+        <v>8</v>
+      </c>
+      <c r="O83" t="s">
+        <v>123</v>
+      </c>
+      <c r="P83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>639</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>640</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>587</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>600</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>509</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>475</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84" t="s">
+        <v>201</v>
+      </c>
+      <c r="N84">
+        <v>8</v>
+      </c>
+      <c r="O84" t="s">
+        <v>123</v>
+      </c>
+      <c r="P84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>475</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>494</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>201</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>483</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>641</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>642</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>640</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>638</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>494</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>475</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
+        <v>592</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87" t="s">
+        <v>201</v>
+      </c>
+      <c r="N87">
+        <v>8</v>
+      </c>
+      <c r="O87" t="s">
+        <v>123</v>
+      </c>
+      <c r="P87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>643</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>590</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>644</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>529</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>595</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
+        <v>592</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88" t="s">
+        <v>201</v>
+      </c>
+      <c r="N88">
+        <v>8</v>
+      </c>
+      <c r="O88" t="s">
+        <v>123</v>
+      </c>
+      <c r="P88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>645</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>507</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>600</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>624</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>592</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
+        <v>201</v>
+      </c>
+      <c r="L89">
+        <v>8</v>
+      </c>
+      <c r="M89" t="s">
+        <v>123</v>
+      </c>
+      <c r="N89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>646</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>507</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>598</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90" t="s">
+        <v>534</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>635</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>201</v>
+      </c>
+      <c r="L90">
+        <v>8</v>
+      </c>
+      <c r="M90" t="s">
+        <v>123</v>
+      </c>
+      <c r="N90">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
